--- a/Parqueaderosv3/datos_salida/analisis_estacionamiento.xlsx
+++ b/Parqueaderosv3/datos_salida/analisis_estacionamiento.xlsx
@@ -509,7 +509,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fecha: 2026-01-05 22:17</t>
+          <t>Fecha: 2026-01-05 22:28</t>
         </is>
       </c>
     </row>

--- a/Parqueaderosv3/datos_salida/analisis_estacionamiento.xlsx
+++ b/Parqueaderosv3/datos_salida/analisis_estacionamiento.xlsx
@@ -10,12 +10,12 @@
     <sheet name="RESUMEN" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="IND_VIA_AUTOS" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="IND_VIA_MOTOS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="OD_CENTENARIO" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="OD_EL_PEÑON" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="OD_GRANADA" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="OD_SAN_ANTONIO" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OD_SAN_FERNANDO_PARQUE_" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="DATOS_OCUPACION" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OO_CENTENARIO" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="OO_EL_PEÑON" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="OO_GRANADA" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="OO_SAN_ANTONIO" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OO_SAN_FERNANDO_PARQUE_" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="DATOS_OCUPACIÓN" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -509,7 +509,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fecha: 2026-01-05 22:28</t>
+          <t>Fecha: 2026-01-05 23:09</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Oferta y Demanda - CENTENARIO</t>
+          <t>Oferta y Ocupación - CENTENARIO</t>
         </is>
       </c>
     </row>
@@ -3025,14 +3025,14 @@
       <c r="C3" s="8" t="n"/>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>DEMANDA AUTOS</t>
+          <t>OCUPACIÓN AUTOS</t>
         </is>
       </c>
       <c r="E3" s="9" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>DEMANDA MOTOS</t>
+          <t>OCUPACIÓN MOTOS</t>
         </is>
       </c>
       <c r="H3" s="9" t="n"/>
@@ -3716,7 +3716,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Oferta y Demanda - EL PEÑON</t>
+          <t>Oferta y Ocupación - EL PEÑON</t>
         </is>
       </c>
     </row>
@@ -3734,14 +3734,14 @@
       <c r="C3" s="8" t="n"/>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>DEMANDA AUTOS</t>
+          <t>OCUPACIÓN AUTOS</t>
         </is>
       </c>
       <c r="E3" s="9" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>DEMANDA MOTOS</t>
+          <t>OCUPACIÓN MOTOS</t>
         </is>
       </c>
       <c r="H3" s="9" t="n"/>
@@ -5479,7 +5479,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Oferta y Demanda - GRANADA</t>
+          <t>Oferta y Ocupación - GRANADA</t>
         </is>
       </c>
     </row>
@@ -5497,14 +5497,14 @@
       <c r="C3" s="8" t="n"/>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>DEMANDA AUTOS</t>
+          <t>OCUPACIÓN AUTOS</t>
         </is>
       </c>
       <c r="E3" s="9" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>DEMANDA MOTOS</t>
+          <t>OCUPACIÓN MOTOS</t>
         </is>
       </c>
       <c r="H3" s="9" t="n"/>
@@ -8389,7 +8389,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Oferta y Demanda - SAN ANTONIO</t>
+          <t>Oferta y Ocupación - SAN ANTONIO</t>
         </is>
       </c>
     </row>
@@ -8407,14 +8407,14 @@
       <c r="C3" s="8" t="n"/>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>DEMANDA AUTOS</t>
+          <t>OCUPACIÓN AUTOS</t>
         </is>
       </c>
       <c r="E3" s="9" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>DEMANDA MOTOS</t>
+          <t>OCUPACIÓN MOTOS</t>
         </is>
       </c>
       <c r="H3" s="9" t="n"/>
@@ -10958,7 +10958,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Oferta y Demanda - SAN FERNANDO (PARQUE DEL PERRO)</t>
+          <t>Oferta y Ocupación - SAN FERNANDO (PARQUE DEL PERRO)</t>
         </is>
       </c>
     </row>
@@ -10976,14 +10976,14 @@
       <c r="C3" s="8" t="n"/>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>DEMANDA AUTOS</t>
+          <t>OCUPACIÓN AUTOS</t>
         </is>
       </c>
       <c r="E3" s="9" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>DEMANDA MOTOS</t>
+          <t>OCUPACIÓN MOTOS</t>
         </is>
       </c>
       <c r="H3" s="9" t="n"/>
